--- a/resources/views/exportform/c3form-excel.xlsx
+++ b/resources/views/exportform/c3form-excel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\personaldatasheet2\resources\views\exportform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772FE3B-2903-459E-B77B-4427C79EB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{10B03030-1CBA-471F-AE42-C81CDFCC1664}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="C3" sheetId="1" r:id="rId1"/>
@@ -118,11 +117,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0_);\(0.0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,20 +145,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -209,6 +194,13 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -524,35 +516,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -564,100 +536,112 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{861CC1E3-D041-461F-97DD-267574A0C297}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -975,835 +959,838 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B615846-E710-4236-B7BE-EBBA2CAC98A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:K10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-    </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:12" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="24" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="5" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="41"/>
-    </row>
-    <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="41"/>
-    </row>
-    <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="5" t="s">
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="41"/>
-    </row>
-    <row r="21" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="41"/>
-    </row>
-    <row r="22" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="41"/>
-    </row>
-    <row r="23" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="41"/>
-    </row>
-    <row r="25" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="41"/>
-    </row>
-    <row r="26" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="41"/>
-    </row>
-    <row r="27" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="41"/>
-    </row>
-    <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="41"/>
-    </row>
-    <row r="29" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="41"/>
-    </row>
-    <row r="30" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="41"/>
-    </row>
-    <row r="31" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="41"/>
-    </row>
-    <row r="32" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="41"/>
-    </row>
-    <row r="33" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="41"/>
-    </row>
-    <row r="34" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="41"/>
-    </row>
-    <row r="35" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="41"/>
-    </row>
-    <row r="36" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="41"/>
-    </row>
-    <row r="37" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="41"/>
-    </row>
-    <row r="38" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="41"/>
-    </row>
-    <row r="39" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="41"/>
-    </row>
-    <row r="40" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="41"/>
-    </row>
-    <row r="41" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="41"/>
-    </row>
-    <row r="42" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="11" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="28" t="s">
+      <c r="J42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="33"/>
-      <c r="L42" s="41"/>
-    </row>
-    <row r="43" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="41"/>
-    </row>
-    <row r="44" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="41"/>
-    </row>
-    <row r="45" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="41"/>
-    </row>
-    <row r="46" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="41"/>
-    </row>
-    <row r="47" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="41"/>
-    </row>
-    <row r="48" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="41"/>
-    </row>
-    <row r="49" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="41"/>
-    </row>
-    <row r="50" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="K42" s="24"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="41"/>
-    </row>
-    <row r="51" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="21" t="s">
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="42"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="40" t="s">
+    <row r="52" spans="1:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="41"/>
-    </row>
-    <row r="53" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="I27:K27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B16:D18"/>
     <mergeCell ref="A15:K15"/>
@@ -1822,10 +1809,9 @@
     <mergeCell ref="E16:F17"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G16:G18"/>
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="C49:H49"/>
     <mergeCell ref="D42:H42"/>
@@ -1836,7 +1822,6 @@
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I38:K38"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A28:D28"/>
@@ -1853,6 +1838,12 @@
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="I51:K51"/>
@@ -1870,18 +1861,9 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="I48:K48"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="G3:G5"/>
@@ -1893,7 +1875,9 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
